--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3743.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3743.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.230796820956073</v>
+        <v>1.496595978736877</v>
       </c>
       <c r="B1">
-        <v>2.434457209508138</v>
+        <v>5.209104537963867</v>
       </c>
       <c r="C1">
-        <v>4.86766973870213</v>
+        <v>1.33355176448822</v>
       </c>
       <c r="D1">
-        <v>3.108767548142271</v>
+        <v>0.9230585694313049</v>
       </c>
       <c r="E1">
-        <v>1.169752508423239</v>
+        <v>0.3779242932796478</v>
       </c>
     </row>
   </sheetData>
